--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2458525.764053141</v>
+        <v>-2461442.389368723</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E2" t="n">
-        <v>33.89412103271894</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>18.73217250539948</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,73 +738,73 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>33.89412103271894</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,70 +817,70 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>33.89412103271894</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="E5" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>134.068287842937</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.18409811733343</v>
+        <v>111.2113021903469</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>79.60038586899344</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>24.30286394573205</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>55.0905562763569</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>62.99679165570139</v>
       </c>
       <c r="S6" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="T6" t="n">
-        <v>118.0873479320588</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>73.94279876104065</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="D7" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>73.9427987610399</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.14454917101816</v>
+        <v>44.1445491710184</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>259.6326967715744</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>124.0596109626757</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>81.60341276859288</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.165296954683559</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.5139093655529</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="V10" t="n">
-        <v>103.5194240877478</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.7409791415961</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T11" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9345864167828</v>
+        <v>123.7636335898686</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>81.97599399093703</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.06801005585547</v>
       </c>
       <c r="G13" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>183.8488525946973</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>139.9903421480542</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>199.2312895683711</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4955826219076</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
@@ -1783,7 +1783,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>8.614349362127481</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
@@ -1822,7 +1822,7 @@
         <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2008,19 +2008,19 @@
         <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943535</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843766</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368233</v>
@@ -2090,7 +2090,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.265843389499</v>
+        <v>375.2658433894981</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297227</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464131</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659985</v>
@@ -2327,7 +2327,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
         <v>378.5542040247498</v>
@@ -2485,7 +2485,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707166</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998803</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
         <v>378.5542040247498</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295168</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706660017</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453002</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.48727004014</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3089,7 +3089,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X32" t="n">
         <v>338.1208983262551</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3269,7 +3269,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684669</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
         <v>350.3201677200478</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3323,7 +3323,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3554,13 +3554,13 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894955</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -3980,7 +3980,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E44" t="n">
         <v>350.3201677200478</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4034,7 +4034,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
         <v>317.6307663651991</v>
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.18473245640914</v>
+        <v>96.13310754467037</v>
       </c>
       <c r="C2" t="n">
-        <v>76.18473245640914</v>
+        <v>96.13310754467037</v>
       </c>
       <c r="D2" t="n">
-        <v>37.31497099905754</v>
+        <v>96.13310754467037</v>
       </c>
       <c r="E2" t="n">
-        <v>3.078485107422247</v>
+        <v>96.13310754467037</v>
       </c>
       <c r="F2" t="n">
-        <v>3.078485107422247</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="G2" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H2" t="n">
         <v>3.078485107422247</v>
@@ -4334,13 +4334,13 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L2" t="n">
-        <v>79.27099151612285</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="M2" t="n">
-        <v>79.27099151612285</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="N2" t="n">
-        <v>117.3672447204732</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="O2" t="n">
         <v>148.7634570536217</v>
@@ -4352,28 +4352,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S2" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T2" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U2" t="n">
-        <v>76.18473245640914</v>
+        <v>135.002869002022</v>
       </c>
       <c r="V2" t="n">
-        <v>76.18473245640914</v>
+        <v>135.002869002022</v>
       </c>
       <c r="W2" t="n">
-        <v>76.18473245640914</v>
+        <v>135.002869002022</v>
       </c>
       <c r="X2" t="n">
-        <v>76.18473245640914</v>
+        <v>96.13310754467037</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.18473245640914</v>
+        <v>96.13310754467037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C3" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D3" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E3" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F3" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G3" t="n">
         <v>3.078485107422247</v>
@@ -4410,22 +4410,22 @@
         <v>9.385105424419159</v>
       </c>
       <c r="K3" t="n">
-        <v>9.385105424419159</v>
+        <v>39.63549575806142</v>
       </c>
       <c r="L3" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M3" t="n">
-        <v>47.48135862876946</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N3" t="n">
-        <v>85.57761183311976</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="O3" t="n">
-        <v>85.57761183311976</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P3" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q3" t="n">
         <v>153.9242553711123</v>
@@ -4434,25 +4434,25 @@
         <v>153.9242553711123</v>
       </c>
       <c r="S3" t="n">
-        <v>119.687769479477</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T3" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U3" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V3" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W3" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X3" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.81800802212544</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C4" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D4" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E4" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F4" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G4" t="n">
         <v>3.078485107422247</v>
@@ -4510,28 +4510,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R4" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S4" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T4" t="n">
-        <v>119.687769479477</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U4" t="n">
-        <v>119.687769479477</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V4" t="n">
-        <v>119.687769479477</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W4" t="n">
-        <v>119.687769479477</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X4" t="n">
-        <v>80.81800802212544</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.81800802212544</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
       <c r="C5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
       <c r="D5" t="n">
-        <v>295.8978608084525</v>
+        <v>130.0056124537564</v>
       </c>
       <c r="E5" t="n">
-        <v>160.4753478357889</v>
+        <v>130.0056124537564</v>
       </c>
       <c r="F5" t="n">
-        <v>25.05283486312529</v>
+        <v>123.060111704553</v>
       </c>
       <c r="G5" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="H5" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="I5" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="J5" t="n">
-        <v>92.88935594964246</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="K5" t="n">
-        <v>225.6169609141501</v>
+        <v>143.4530679919419</v>
       </c>
       <c r="L5" t="n">
-        <v>225.6169609141501</v>
+        <v>270.8179414427315</v>
       </c>
       <c r="M5" t="n">
-        <v>270.8179414427327</v>
+        <v>270.8179414427315</v>
       </c>
       <c r="N5" t="n">
-        <v>270.8179414427327</v>
+        <v>270.8179414427315</v>
       </c>
       <c r="O5" t="n">
-        <v>403.5455464072403</v>
+        <v>403.5455464072385</v>
       </c>
       <c r="P5" t="n">
-        <v>536.2731513717479</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="Q5" t="n">
-        <v>536.2731513717479</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="R5" t="n">
-        <v>455.8687212010474</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="S5" t="n">
-        <v>320.4462082283839</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="T5" t="n">
-        <v>320.4462082283839</v>
+        <v>400.8506383990825</v>
       </c>
       <c r="U5" t="n">
-        <v>320.4462082283839</v>
+        <v>400.8506383990825</v>
       </c>
       <c r="V5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
       <c r="W5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
       <c r="X5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.8978608084525</v>
+        <v>265.4281254264195</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.1479760000986</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="C6" t="n">
-        <v>10.72546302743496</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="D6" t="n">
-        <v>10.72546302743496</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="E6" t="n">
-        <v>10.72546302743496</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="F6" t="n">
-        <v>10.72546302743496</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="G6" t="n">
-        <v>10.72546302743496</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="H6" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="I6" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="J6" t="n">
-        <v>10.72546302743496</v>
+        <v>65.96833508988153</v>
       </c>
       <c r="K6" t="n">
-        <v>10.72546302743496</v>
+        <v>65.96833508988153</v>
       </c>
       <c r="L6" t="n">
-        <v>143.4530679919426</v>
+        <v>198.6959400543885</v>
       </c>
       <c r="M6" t="n">
-        <v>152.876393821256</v>
+        <v>208.1192658837012</v>
       </c>
       <c r="N6" t="n">
-        <v>270.8179414427327</v>
+        <v>340.8468708482081</v>
       </c>
       <c r="O6" t="n">
-        <v>403.5455464072403</v>
+        <v>473.5744758127151</v>
       </c>
       <c r="P6" t="n">
-        <v>536.2731513717479</v>
+        <v>473.5744758127151</v>
       </c>
       <c r="Q6" t="n">
-        <v>536.2731513717479</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="R6" t="n">
-        <v>536.2731513717479</v>
+        <v>472.6400284871986</v>
       </c>
       <c r="S6" t="n">
-        <v>400.8506383990842</v>
+        <v>337.2175155145356</v>
       </c>
       <c r="T6" t="n">
-        <v>281.5704889727622</v>
+        <v>337.2175155145356</v>
       </c>
       <c r="U6" t="n">
-        <v>281.5704889727622</v>
+        <v>337.2175155145356</v>
       </c>
       <c r="V6" t="n">
-        <v>281.5704889727622</v>
+        <v>337.2175155145356</v>
       </c>
       <c r="W6" t="n">
-        <v>281.5704889727622</v>
+        <v>201.7950025418726</v>
       </c>
       <c r="X6" t="n">
-        <v>281.5704889727622</v>
+        <v>66.37248956920956</v>
       </c>
       <c r="Y6" t="n">
-        <v>281.5704889727622</v>
+        <v>66.37248956920956</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.8376717183214</v>
+        <v>356.2601846909831</v>
       </c>
       <c r="C7" t="n">
-        <v>146.1479760000986</v>
+        <v>220.8376717183201</v>
       </c>
       <c r="D7" t="n">
-        <v>10.72546302743496</v>
+        <v>220.8376717183201</v>
       </c>
       <c r="E7" t="n">
-        <v>10.72546302743496</v>
+        <v>85.41515874565704</v>
       </c>
       <c r="F7" t="n">
-        <v>10.72546302743496</v>
+        <v>85.41515874565704</v>
       </c>
       <c r="G7" t="n">
-        <v>10.72546302743496</v>
+        <v>85.41515874565704</v>
       </c>
       <c r="H7" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="I7" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="J7" t="n">
-        <v>10.72546302743496</v>
+        <v>10.72546302743491</v>
       </c>
       <c r="K7" t="n">
-        <v>46.39376096375096</v>
+        <v>46.39376096375059</v>
       </c>
       <c r="L7" t="n">
-        <v>147.5633367600238</v>
+        <v>147.5633367600231</v>
       </c>
       <c r="M7" t="n">
-        <v>264.6215925104665</v>
+        <v>264.6215925104653</v>
       </c>
       <c r="N7" t="n">
-        <v>384.331080999083</v>
+        <v>384.3310809990815</v>
       </c>
       <c r="O7" t="n">
-        <v>478.8858736459995</v>
+        <v>478.8858736459975</v>
       </c>
       <c r="P7" t="n">
-        <v>536.2731513717479</v>
+        <v>536.2731513717455</v>
       </c>
       <c r="Q7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="R7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="S7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="T7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="U7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="V7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="W7" t="n">
-        <v>491.6826976636487</v>
+        <v>491.6826976636461</v>
       </c>
       <c r="X7" t="n">
-        <v>491.6826976636487</v>
+        <v>356.2601846909831</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.2601846909851</v>
+        <v>356.2601846909831</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419.7330060626387</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="C8" t="n">
-        <v>419.7330060626387</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="D8" t="n">
-        <v>157.4777567984221</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="E8" t="n">
-        <v>157.4777567984221</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="F8" t="n">
-        <v>150.5322560492186</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G8" t="n">
-        <v>137.5684432757742</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H8" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917596</v>
       </c>
       <c r="K8" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
         <v>888.5149683358413</v>
@@ -4823,31 +4823,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946886</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>686.1106626298166</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U8" t="n">
-        <v>686.1106626298166</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V8" t="n">
-        <v>686.1106626298166</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="W8" t="n">
-        <v>686.1106626298166</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="X8" t="n">
-        <v>686.1106626298166</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="Y8" t="n">
-        <v>686.1106626298166</v>
+        <v>560.7979242836799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.2565623210693</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="C9" t="n">
-        <v>475.8035330399423</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="D9" t="n">
-        <v>326.869123378691</v>
+        <v>471.7187438561813</v>
       </c>
       <c r="E9" t="n">
-        <v>167.6316683732355</v>
+        <v>312.4812888507258</v>
       </c>
       <c r="F9" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I9" t="n">
         <v>21.09711040012049</v>
@@ -4884,49 +4884,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L9" t="n">
-        <v>268.3979551252638</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N9" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P9" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T9" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U9" t="n">
-        <v>826.7196740428378</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V9" t="n">
-        <v>826.7196740428378</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="W9" t="n">
-        <v>818.4718993411373</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="X9" t="n">
-        <v>818.4718993411373</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="Y9" t="n">
-        <v>818.4718993411373</v>
+        <v>554.1464335214266</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>502.2643237724978</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="C10" t="n">
-        <v>333.328140844591</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="D10" t="n">
-        <v>183.2115014322552</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2115014322552</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="F10" t="n">
-        <v>36.32155393434486</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G10" t="n">
-        <v>36.32155393434486</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J10" t="n">
         <v>21.09711040012049</v>
@@ -4966,7 +4966,7 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
         <v>527.7368878375335</v>
@@ -4975,37 +4975,37 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006024</v>
+        <v>919.9929852933449</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006024</v>
+        <v>919.9929852933449</v>
       </c>
       <c r="U10" t="n">
-        <v>788.4778634388465</v>
+        <v>919.9929852933449</v>
       </c>
       <c r="V10" t="n">
-        <v>683.9127886027376</v>
+        <v>919.9929852933449</v>
       </c>
       <c r="W10" t="n">
-        <v>683.9127886027376</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="X10" t="n">
-        <v>683.9127886027376</v>
+        <v>653.6153287261669</v>
       </c>
       <c r="Y10" t="n">
-        <v>683.9127886027376</v>
+        <v>653.6153287261669</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5030,25 @@
         <v>801.5426848235895</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2352036347373</v>
+        <v>387.2352036347372</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810105</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="I11" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K11" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
         <v>2681.771598889756</v>
@@ -5066,25 +5066,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S11" t="n">
-        <v>4229.080065784503</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T11" t="n">
-        <v>4026.450969818052</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="U11" t="n">
-        <v>3772.98169060918</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="V11" t="n">
-        <v>3441.918803265609</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W11" t="n">
-        <v>3089.150147995495</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X11" t="n">
-        <v>2715.684389734415</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2325.545057758603</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I12" t="n">
         <v>84.98040897511625</v>
@@ -5121,13 +5121,13 @@
         <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N12" t="n">
         <v>1934.929714729833</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>335.1441411914589</v>
+        <v>880.6114676287899</v>
       </c>
       <c r="C13" t="n">
-        <v>252.340106857179</v>
+        <v>880.6114676287899</v>
       </c>
       <c r="D13" t="n">
-        <v>252.340106857179</v>
+        <v>730.4948282164542</v>
       </c>
       <c r="E13" t="n">
-        <v>252.340106857179</v>
+        <v>582.581734634061</v>
       </c>
       <c r="F13" t="n">
-        <v>252.340106857179</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G13" t="n">
-        <v>84.98040897511625</v>
+        <v>315.1533397258817</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98040897511625</v>
+        <v>171.9869683152618</v>
       </c>
       <c r="I13" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K13" t="n">
         <v>396.9405013869778</v>
@@ -5221,28 +5221,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R13" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S13" t="n">
-        <v>2019.061021685725</v>
+        <v>2093.462713255856</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.760544521729</v>
+        <v>1873.16223609186</v>
       </c>
       <c r="U13" t="n">
-        <v>1509.676394306094</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.991906100207</v>
+        <v>1329.393597670337</v>
       </c>
       <c r="W13" t="n">
-        <v>965.5747360632461</v>
+        <v>1329.393597670337</v>
       </c>
       <c r="X13" t="n">
-        <v>737.5851851652287</v>
+        <v>1101.40404677232</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.7926060216986</v>
+        <v>880.6114676287899</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2313.039625065619</v>
+        <v>1927.251372467374</v>
       </c>
       <c r="C14" t="n">
-        <v>1944.077108125207</v>
+        <v>1558.288855526963</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.811409518456</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="E14" t="n">
         <v>1200.023156920212</v>
@@ -5267,61 +5267,61 @@
         <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417525</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755813</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>4249.020448755813</v>
+        <v>4014.757124590944</v>
       </c>
       <c r="U14" t="n">
-        <v>3995.551169546941</v>
+        <v>3761.287845382073</v>
       </c>
       <c r="V14" t="n">
-        <v>3664.488282203371</v>
+        <v>3430.224958038502</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.244555366632</v>
+        <v>3077.456302768388</v>
       </c>
       <c r="X14" t="n">
-        <v>3089.778797105552</v>
+        <v>2703.990544507308</v>
       </c>
       <c r="Y14" t="n">
-        <v>2699.639465129741</v>
+        <v>2313.851212531496</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.25253785418</v>
+        <v>1551.252537854181</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.2522616161548</v>
+        <v>801.565859948187</v>
       </c>
       <c r="C16" t="n">
-        <v>777.3160786882479</v>
+        <v>632.6296770202802</v>
       </c>
       <c r="D16" t="n">
-        <v>777.3160786882479</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="F16" t="n">
         <v>482.5130376079444</v>
@@ -5431,7 +5431,7 @@
         <v>171.9869683152618</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755868</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2196.065570405493</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1975.765093241497</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306094</v>
+        <v>1686.680943025861</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.676394306094</v>
+        <v>1431.996454819974</v>
       </c>
       <c r="W16" t="n">
-        <v>1509.676394306094</v>
+        <v>1431.996454819974</v>
       </c>
       <c r="X16" t="n">
-        <v>1281.686843408076</v>
+        <v>1204.006903921957</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.894264264546</v>
+        <v>983.2143247784268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796686</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076837</v>
@@ -5537,28 +5537,28 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
         <v>216.557510983586</v>
@@ -5601,10 +5601,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.83934483395</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.694692760353</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O18" t="n">
         <v>1959.694692760353</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609033</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796675</v>
@@ -5744,58 +5744,58 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076848</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
         <v>216.557510983586</v>
@@ -5838,10 +5838,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277778</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N21" t="n">
-        <v>1551.25253785418</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O21" t="n">
         <v>1959.694692760353</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
         <v>735.8557341477722</v>
@@ -5905,7 +5905,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5975,34 +5975,34 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511675</v>
       </c>
       <c r="I23" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
@@ -6075,16 +6075,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315387</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162839</v>
@@ -6227,16 +6227,16 @@
         <v>337.4933016076843</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6269,7 +6269,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039808</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749445</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6418,16 +6418,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502127</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477745</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6698,10 +6698,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,13 +6710,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6771,7 +6771,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
         <v>84.98040897511622</v>
@@ -6780,22 +6780,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1453.289737812102</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6886,19 +6886,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
         <v>1458.093420216582</v>
@@ -6923,64 +6923,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,37 +7160,37 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7333,7 +7333,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7360,10 +7360,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7552,34 +7552,34 @@
         <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042791</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7603,7 +7603,7 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
         <v>1407.504522645591</v>
@@ -7634,52 +7634,52 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951436</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7722,31 +7722,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7783,16 +7783,16 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749443</v>
@@ -7801,16 +7801,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,10 +7819,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,10 +7834,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7982,16 +7982,16 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L2" t="n">
-        <v>252.0299206180583</v>
+        <v>245.2622025663394</v>
       </c>
       <c r="M2" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>242.7727963709656</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O2" t="n">
-        <v>238.0901966419337</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P2" t="n">
         <v>210.9873633211545</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>156.233447712962</v>
       </c>
       <c r="L3" t="n">
-        <v>160.6795236990645</v>
+        <v>160.6795236990646</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N3" t="n">
         <v>150.2310236677773</v>
@@ -8073,10 +8073,10 @@
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>150.1458699897895</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>86.10278393752128</v>
       </c>
       <c r="K5" t="n">
-        <v>211.8630125898092</v>
+        <v>211.8630125898095</v>
       </c>
       <c r="L5" t="n">
-        <v>59.23672820140752</v>
+        <v>187.8881155254384</v>
       </c>
       <c r="M5" t="n">
-        <v>79.58049915751585</v>
+        <v>33.92294306803956</v>
       </c>
       <c r="N5" t="n">
-        <v>29.81143924835274</v>
+        <v>29.81143924835388</v>
       </c>
       <c r="O5" t="n">
-        <v>175.6883454282754</v>
+        <v>175.6883454282759</v>
       </c>
       <c r="P5" t="n">
-        <v>204.4395398950858</v>
+        <v>204.4395398950862</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.5052196050994</v>
+        <v>101.5052196051001</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>70.2901544692503</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>41.19280224011828</v>
+        <v>41.19280224011884</v>
       </c>
       <c r="L6" t="n">
-        <v>142.6666483510458</v>
+        <v>142.6666483510459</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>94.80825200171216</v>
+        <v>109.7436634593194</v>
       </c>
       <c r="O6" t="n">
-        <v>134.2602463074712</v>
+        <v>134.2602463074714</v>
       </c>
       <c r="P6" t="n">
-        <v>153.750701174768</v>
+        <v>19.68241333183173</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.58060279250651</v>
+        <v>126.912598306679</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L9" t="n">
-        <v>26.13373767211382</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>71.18793141915893</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.691091711109038e-12</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>316.2019777779049</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>169.2696083876039</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>368.3949818989333</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>299.5518830515227</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>212.8533259460332</v>
+        <v>213.1832531028485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>331.2500368356909</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>134.0337052326398</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>135.9727348210013</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>247.8345207995437</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.1893696335696</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>127.1709528269142</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>85.27082710769081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>46.35303796707578</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>60.61246285873204</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>150.0096791490419</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.33639756002967</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>175.2345032325698</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.790567694115452e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
     </row>
     <row r="26">
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34416.97740916458</v>
+        <v>34416.9774091646</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26329,31 +26329,31 @@
         <v>41052.08849321412</v>
       </c>
       <c r="H2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321414</v>
       </c>
-      <c r="K2" t="n">
-        <v>41052.08849321424</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321415</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321414</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>46642.83166352184</v>
       </c>
       <c r="C3" t="n">
-        <v>252376.5241153023</v>
+        <v>252376.5241153007</v>
       </c>
       <c r="D3" t="n">
-        <v>327850.0335989062</v>
+        <v>327850.033598908</v>
       </c>
       <c r="E3" t="n">
         <v>771970.6783324423</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177112</v>
+        <v>25288.1618817711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>10068.3394680798</v>
       </c>
       <c r="K3" t="n">
-        <v>24601.09266647298</v>
+        <v>24601.0926664727</v>
       </c>
       <c r="L3" t="n">
-        <v>58100.29444677551</v>
+        <v>58100.29444677572</v>
       </c>
       <c r="M3" t="n">
-        <v>198999.6692260404</v>
+        <v>198999.6692260406</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4210854715202e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321315.2994842051</v>
+        <v>321315.2994842052</v>
       </c>
       <c r="C4" t="n">
-        <v>333651.8406963152</v>
+        <v>333651.8406963157</v>
       </c>
       <c r="D4" t="n">
         <v>246753.8673982314</v>
@@ -26427,37 +26427,37 @@
         <v>8060.046138753067</v>
       </c>
       <c r="F4" t="n">
-        <v>8060.046138753109</v>
+        <v>8060.046138753067</v>
       </c>
       <c r="G4" t="n">
-        <v>39129.93122097311</v>
+        <v>39129.93122097306</v>
       </c>
       <c r="H4" t="n">
-        <v>39129.931220973</v>
+        <v>39129.93122097304</v>
       </c>
       <c r="I4" t="n">
-        <v>39129.93122097304</v>
+        <v>39129.93122097309</v>
       </c>
       <c r="J4" t="n">
-        <v>39129.93122097304</v>
+        <v>39129.93122097307</v>
       </c>
       <c r="K4" t="n">
-        <v>39129.93122097322</v>
+        <v>39129.93122097303</v>
       </c>
       <c r="L4" t="n">
         <v>39129.93122097311</v>
       </c>
       <c r="M4" t="n">
-        <v>39129.9312209732</v>
+        <v>39129.93122097309</v>
       </c>
       <c r="N4" t="n">
-        <v>39129.93122097316</v>
+        <v>39129.9312209731</v>
       </c>
       <c r="O4" t="n">
-        <v>39129.93122097319</v>
+        <v>39129.93122097307</v>
       </c>
       <c r="P4" t="n">
-        <v>39129.93122097322</v>
+        <v>39129.93122097313</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>36730.71216531784</v>
       </c>
       <c r="C5" t="n">
-        <v>47845.05369527932</v>
+        <v>47845.05369527925</v>
       </c>
       <c r="D5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
         <v>95106.4341021553</v>
@@ -26494,22 +26494,22 @@
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-370271.8659038802</v>
+        <v>-370603.6214580828</v>
       </c>
       <c r="C6" t="n">
-        <v>-592821.3300136826</v>
+        <v>-592821.3300136816</v>
       </c>
       <c r="D6" t="n">
-        <v>-596599.6157081897</v>
+        <v>-596599.6157081915</v>
       </c>
       <c r="E6" t="n">
-        <v>-834142.5613742369</v>
+        <v>-834278.3078440194</v>
       </c>
       <c r="F6" t="n">
-        <v>-62171.88304179462</v>
+        <v>-62307.629511577</v>
       </c>
       <c r="G6" t="n">
-        <v>-118472.4387116854</v>
+        <v>-118472.4387116853</v>
       </c>
       <c r="H6" t="n">
-        <v>-93184.27682991415</v>
+        <v>-93184.27682991419</v>
       </c>
       <c r="I6" t="n">
-        <v>-93184.2768299142</v>
+        <v>-93184.27682991425</v>
       </c>
       <c r="J6" t="n">
         <v>-103252.616297994</v>
       </c>
       <c r="K6" t="n">
-        <v>-117785.3694963872</v>
+        <v>-117785.3694963868</v>
       </c>
       <c r="L6" t="n">
-        <v>-151284.5712766897</v>
+        <v>-151284.57127669</v>
       </c>
       <c r="M6" t="n">
-        <v>-292183.9460559547</v>
+        <v>-292183.9460559548</v>
       </c>
       <c r="N6" t="n">
-        <v>-93184.27682991439</v>
+        <v>-93184.27682991423</v>
       </c>
       <c r="O6" t="n">
-        <v>-93184.27682991418</v>
+        <v>-93184.27682991419</v>
       </c>
       <c r="P6" t="n">
-        <v>-93184.27682991448</v>
+        <v>-93184.27682991428</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>31.6102023522139</v>
@@ -26710,19 +26710,19 @@
         <v>31.6102023522139</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.61020235221397</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26738,10 +26738,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>278.2615502031538</v>
+        <v>278.2615502031522</v>
       </c>
       <c r="D3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26790,7 +26790,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="D4" t="n">
         <v>263.7138800015061</v>
@@ -26820,16 +26820,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.527666881884215e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77635683940025e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,10 +26960,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>243.2402894840285</v>
+        <v>243.2402894840269</v>
       </c>
       <c r="D3" t="n">
-        <v>335.7934635663242</v>
+        <v>335.793463566326</v>
       </c>
       <c r="E3" t="n">
         <v>664.104856850645</v>
@@ -27012,10 +27012,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>95.58722400015887</v>
+        <v>95.58722400015827</v>
       </c>
       <c r="D4" t="n">
-        <v>129.6455921585691</v>
+        <v>129.6455921585698</v>
       </c>
       <c r="E4" t="n">
         <v>798.5412321874469</v>
@@ -27036,16 +27036,16 @@
         <v>38.48106384277798</v>
       </c>
       <c r="K4" t="n">
-        <v>95.58722400015876</v>
+        <v>95.58722400015827</v>
       </c>
       <c r="L4" t="n">
-        <v>129.6455921585693</v>
+        <v>129.6455921585697</v>
       </c>
       <c r="M4" t="n">
-        <v>798.5412321874464</v>
+        <v>798.5412321874471</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.527666881884215e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,10 +27258,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="K4" t="n">
-        <v>95.58722400015887</v>
+        <v>95.58722400015827</v>
       </c>
       <c r="L4" t="n">
-        <v>129.6455921585691</v>
+        <v>129.6455921585698</v>
       </c>
       <c r="M4" t="n">
         <v>798.5412321874469</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>178.766640651939</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>102.5442178425012</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>19.41896418056331</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>134.2274351455376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>103.3740673810204</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27506,25 +27506,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>136.3898515886142</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T3" t="n">
-        <v>161.3800371293938</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>167.2016319345263</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>128.7657572558497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>129.4467624225806</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27582,25 +27582,25 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>193.7816324523168</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>248.0419344938129</v>
       </c>
       <c r="X4" t="n">
-        <v>187.2285915462591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>220.6147537777466</v>
       </c>
       <c r="E5" t="n">
-        <v>247.8620822293248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>272.8077578987745</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>302.9727959269865</v>
       </c>
       <c r="H5" t="n">
         <v>328.0185363830313</v>
       </c>
       <c r="I5" t="n">
-        <v>167.3495441866588</v>
+        <v>167.349544186659</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>79.60038586899384</v>
       </c>
       <c r="S5" t="n">
-        <v>49.46078646590388</v>
+        <v>183.529074308841</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1990056002547</v>
+        <v>84.13071775731841</v>
       </c>
       <c r="U5" t="n">
         <v>251.2561617560124</v>
       </c>
       <c r="V5" t="n">
-        <v>303.4493945244029</v>
+        <v>193.6839706271985</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.46489580693037</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>38.64021114537877</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.7449923193774</v>
       </c>
       <c r="H6" t="n">
-        <v>106.4549542973706</v>
+        <v>51.36439802101371</v>
       </c>
       <c r="I6" t="n">
-        <v>68.78952748259661</v>
+        <v>68.78952748259672</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>62.99679165570118</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>26.49754679759562</v>
+        <v>26.49754679759627</v>
       </c>
       <c r="T6" t="n">
-        <v>79.6649056246807</v>
+        <v>197.7522535567396</v>
       </c>
       <c r="U6" t="n">
         <v>225.9020054465121</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>117.6266953179832</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>71.7046973605411</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.76369233900033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>93.30402233758718</v>
+        <v>33.17853325569146</v>
       </c>
       <c r="D7" t="n">
-        <v>14.54718517527539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>12.3656748036328</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.4891962351416</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7658643746743</v>
+        <v>83.82306561363437</v>
       </c>
       <c r="I7" t="n">
-        <v>140.360487909684</v>
+        <v>140.3604879096841</v>
       </c>
       <c r="J7" t="n">
-        <v>57.88311329814938</v>
+        <v>57.88311329814958</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>154.7313974869269</v>
+        <v>154.731397486927</v>
       </c>
       <c r="S7" t="n">
-        <v>215.2718866969813</v>
+        <v>215.2718866969814</v>
       </c>
       <c r="T7" t="n">
         <v>225.80160699229</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>91.64136754610078</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.51636550915782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>95.05034484910851</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>203.6926475074592</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>65.84165279604588</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>147.1499354121988</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>243.5296862062361</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>71.20525487804088</v>
       </c>
       <c r="T10" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>148.6182192360802</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28810,7 +28810,7 @@
         <v>31.6102023522139</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221247</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="G20" t="n">
         <v>31.6102023522139</v>
@@ -29047,7 +29047,7 @@
         <v>31.6102023522139</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221332</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G23" t="n">
         <v>31.6102023522139</v>
@@ -29284,7 +29284,7 @@
         <v>31.6102023522139</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221332</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G26" t="n">
         <v>31.6102023522139</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="32">
@@ -29764,10 +29764,10 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="X32" t="n">
         <v>31.61020235221394</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221605</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221594</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="E44" t="n">
         <v>31.61020235221395</v>
@@ -30715,7 +30715,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
         <v>31.61020235221395</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.118639397801623</v>
+        <v>1.118639397801616</v>
       </c>
       <c r="H5" t="n">
-        <v>11.45626573273587</v>
+        <v>11.4562657327358</v>
       </c>
       <c r="I5" t="n">
-        <v>43.12634538374709</v>
+        <v>43.12634538374685</v>
       </c>
       <c r="J5" t="n">
-        <v>94.94312058916556</v>
+        <v>94.94312058916501</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2951262981083</v>
+        <v>142.2951262981074</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5296867685797</v>
+        <v>176.5296867685787</v>
       </c>
       <c r="M5" t="n">
-        <v>196.4232901592343</v>
+        <v>196.4232901592332</v>
       </c>
       <c r="N5" t="n">
-        <v>199.6016243482382</v>
+        <v>199.601624348237</v>
       </c>
       <c r="O5" t="n">
-        <v>188.4781538363483</v>
+        <v>188.4781538363472</v>
       </c>
       <c r="P5" t="n">
-        <v>160.8617437031207</v>
+        <v>160.8617437031198</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.8004702693501</v>
+        <v>120.8004702693494</v>
       </c>
       <c r="R5" t="n">
-        <v>70.26873207215624</v>
+        <v>70.26873207215584</v>
       </c>
       <c r="S5" t="n">
-        <v>25.4909952774045</v>
+        <v>25.49099527740436</v>
       </c>
       <c r="T5" t="n">
-        <v>4.896843963876606</v>
+        <v>4.896843963876577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08949115182412978</v>
+        <v>0.08949115182412928</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5985248438331988</v>
+        <v>0.5985248438331954</v>
       </c>
       <c r="H6" t="n">
-        <v>5.780489939125895</v>
+        <v>5.780489939125862</v>
       </c>
       <c r="I6" t="n">
-        <v>20.60710536881847</v>
+        <v>20.60710536881835</v>
       </c>
       <c r="J6" t="n">
-        <v>56.5474721974164</v>
+        <v>56.54747219741607</v>
       </c>
       <c r="K6" t="n">
-        <v>96.64863673424071</v>
+        <v>96.64863673424016</v>
       </c>
       <c r="L6" t="n">
-        <v>129.9560192717654</v>
+        <v>129.9560192717647</v>
       </c>
       <c r="M6" t="n">
-        <v>151.6525448607188</v>
+        <v>151.6525448607179</v>
       </c>
       <c r="N6" t="n">
-        <v>155.6663364669511</v>
+        <v>155.6663364669502</v>
       </c>
       <c r="O6" t="n">
-        <v>142.4042859799102</v>
+        <v>142.4042859799094</v>
       </c>
       <c r="P6" t="n">
-        <v>114.2919940824992</v>
+        <v>114.2919940824985</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.40117129351501</v>
+        <v>76.40117129351457</v>
       </c>
       <c r="R6" t="n">
-        <v>37.16104249694195</v>
+        <v>37.16104249694174</v>
       </c>
       <c r="S6" t="n">
-        <v>11.11733646330524</v>
+        <v>11.11733646330518</v>
       </c>
       <c r="T6" t="n">
-        <v>2.412475138082059</v>
+        <v>2.412475138082046</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03937663446271047</v>
+        <v>0.03937663446271024</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5017831233171626</v>
+        <v>0.5017831233171597</v>
       </c>
       <c r="H7" t="n">
-        <v>4.461308132765321</v>
+        <v>4.461308132765296</v>
       </c>
       <c r="I7" t="n">
-        <v>15.08998701757431</v>
+        <v>15.08998701757423</v>
       </c>
       <c r="J7" t="n">
-        <v>35.47606681852339</v>
+        <v>35.47606681852319</v>
       </c>
       <c r="K7" t="n">
-        <v>58.29807559993942</v>
+        <v>58.29807559993909</v>
       </c>
       <c r="L7" t="n">
-        <v>74.60146544298981</v>
+        <v>74.60146544298938</v>
       </c>
       <c r="M7" t="n">
-        <v>78.65678541234394</v>
+        <v>78.6567854123435</v>
       </c>
       <c r="N7" t="n">
-        <v>76.78650286179821</v>
+        <v>76.78650286179777</v>
       </c>
       <c r="O7" t="n">
-        <v>70.92476364850225</v>
+        <v>70.92476364850184</v>
       </c>
       <c r="P7" t="n">
-        <v>60.68838793283208</v>
+        <v>60.68838793283173</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.01749408067623</v>
+        <v>42.01749408067599</v>
       </c>
       <c r="R7" t="n">
-        <v>22.5619938902426</v>
+        <v>22.56199389024247</v>
       </c>
       <c r="S7" t="n">
-        <v>8.744711339990912</v>
+        <v>8.744711339990863</v>
       </c>
       <c r="T7" t="n">
-        <v>2.143982435991513</v>
+        <v>2.1439824359915</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02736998854457254</v>
+        <v>0.02736998854457238</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I11" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R11" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L12" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N12" t="n">
-        <v>548.1235910649146</v>
+        <v>548.1235910649142</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R12" t="n">
         <v>170.6946332877214</v>
@@ -31914,7 +31914,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838147</v>
@@ -31923,13 +31923,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O13" t="n">
         <v>325.7840929246177</v>
@@ -31944,10 +31944,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31990,46 +31990,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R14" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,16 +32069,16 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
@@ -32087,16 +32087,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O15" t="n">
-        <v>530.1489483592447</v>
+        <v>530.1489483592443</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877214</v>
@@ -32151,7 +32151,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32160,13 +32160,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O16" t="n">
         <v>325.7840929246177</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32321,13 +32321,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>554.7018671605763</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32558,13 +32558,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>554.7018671605763</v>
       </c>
       <c r="N21" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>555.1640776830025</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892351</v>
@@ -32795,19 +32795,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>554.7018671605763</v>
       </c>
       <c r="N24" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,19 +33032,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I29" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L29" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R29" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>472.9693813169756</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>616.081659441237</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I32" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L32" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R32" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>626.8739812799222</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I35" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L35" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R35" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33688,7 +33688,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>366.6975250682018</v>
+        <v>584.3932527497834</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
         <v>342.6725659692048</v>
@@ -33828,22 +33828,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I38" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L38" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R38" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>616.081659441237</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I41" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L41" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34162,7 +34162,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5760810583997</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
         <v>342.6725659692048</v>
@@ -34302,22 +34302,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I44" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171624</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34702,7 +34702,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L2" t="n">
-        <v>38.48106384277808</v>
+        <v>31.71334579105918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="O2" t="n">
-        <v>31.71334579105919</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="L3" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N3" t="n">
         <v>38.48106384277808</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>82.99383123455304</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>128.6513873240299</v>
       </c>
       <c r="M5" t="n">
-        <v>45.65755608947742</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="P5" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>55.80088087115821</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="M6" t="n">
-        <v>9.518510938700501</v>
+        <v>9.51851093869962</v>
       </c>
       <c r="N6" t="n">
-        <v>119.13287638533</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="O6" t="n">
-        <v>134.068287842937</v>
+        <v>134.0682878429364</v>
       </c>
       <c r="P6" t="n">
-        <v>134.068287842937</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>63.33199551417206</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>36.02858377405657</v>
+        <v>36.02858377405624</v>
       </c>
       <c r="L7" t="n">
-        <v>102.1914907033059</v>
+        <v>102.1914907033055</v>
       </c>
       <c r="M7" t="n">
-        <v>118.2406623741845</v>
+        <v>118.2406623741841</v>
       </c>
       <c r="N7" t="n">
-        <v>120.9186752410268</v>
+        <v>120.9186752410264</v>
       </c>
       <c r="O7" t="n">
-        <v>95.50989156254192</v>
+        <v>95.50989156254151</v>
       </c>
       <c r="P7" t="n">
-        <v>57.96694719772557</v>
+        <v>57.96694719772522</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763038</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L9" t="n">
-        <v>174.3604282380699</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L11" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L12" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N12" t="n">
-        <v>416.7818789815813</v>
+        <v>416.7818789815809</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K13" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L13" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M13" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N13" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O13" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P13" t="n">
         <v>276.043131703092</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381588</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
@@ -35735,19 +35735,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O15" t="n">
-        <v>387.5527039148003</v>
+        <v>387.5527039147998</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P16" t="n">
         <v>276.043131703092</v>
@@ -35905,7 +35905,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>412.567833238558</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -36042,16 +36042,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36206,13 +36206,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>412.567833238558</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>412.567833238558</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749049</v>
@@ -36364,7 +36364,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151683</v>
@@ -36443,19 +36443,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>412.567833238558</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306251</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>69.06225485572025</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>334.4150015371014</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P32" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>484.7399473579039</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P35" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>224.1012806237574</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381569</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721818</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
